--- a/用例数据/股转/优先股赎回/测试结果.xlsx
+++ b/用例数据/股转/优先股赎回/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="10788" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="10785" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="新股" sheetId="21" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="545">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1621,43 +1621,7 @@
     <t>ADJUSTEDFEEFLAG</t>
   </si>
   <si>
-    <t>30050133</t>
-  </si>
-  <si>
-    <t>20211225183705</t>
-  </si>
-  <si>
-    <t>20211225000000</t>
-  </si>
-  <si>
-    <t>1004979.620</t>
-  </si>
-  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>000006864218</t>
-  </si>
-  <si>
-    <t>30050134</t>
-  </si>
-  <si>
-    <t>000006864219</t>
-  </si>
-  <si>
-    <t>30050135</t>
-  </si>
-  <si>
-    <t>10011171.060</t>
-  </si>
-  <si>
-    <t>000006864220</t>
-  </si>
-  <si>
-    <t>30050136</t>
-  </si>
-  <si>
-    <t>000006864221</t>
   </si>
   <si>
     <t>GZ11721600</t>
@@ -1666,6 +1630,39 @@
   <si>
     <t>820003</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30052805</t>
+  </si>
+  <si>
+    <t>20221007203502</t>
+  </si>
+  <si>
+    <t>999302690.520</t>
+  </si>
+  <si>
+    <t>000006907749</t>
+  </si>
+  <si>
+    <t>30052806</t>
+  </si>
+  <si>
+    <t>000006907750</t>
+  </si>
+  <si>
+    <t>30052807</t>
+  </si>
+  <si>
+    <t>999269555.900</t>
+  </si>
+  <si>
+    <t>000006907751</t>
+  </si>
+  <si>
+    <t>30052808</t>
+  </si>
+  <si>
+    <t>000006907752</t>
   </si>
 </sst>
 </file>
@@ -2662,20 +2659,20 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +2764,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -2850,7 +2847,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -2933,25 +2930,25 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3040,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>182</v>
       </c>
@@ -3209,7 +3206,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>183</v>
       </c>
@@ -3292,7 +3289,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>196</v>
       </c>
@@ -3375,7 +3372,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
@@ -3458,7 +3455,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>236</v>
       </c>
@@ -3541,7 +3538,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -3624,7 +3621,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -3707,7 +3704,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>242</v>
       </c>
@@ -3790,7 +3787,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>216</v>
       </c>
@@ -3873,13 +3870,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3974,7 +3971,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -4063,7 +4060,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>182</v>
       </c>
@@ -4152,17 +4149,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4584,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>155</v>
       </c>
@@ -4982,7 +4979,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>190</v>
       </c>
@@ -5377,15 +5374,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -5480,7 +5477,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>141</v>
       </c>
@@ -5569,7 +5566,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>182</v>
       </c>
@@ -5658,15 +5655,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>141</v>
       </c>
@@ -5850,7 +5847,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>182</v>
       </c>
@@ -5939,341 +5936,341 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6285,92 +6282,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH14"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -6630,7 +6627,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>236</v>
       </c>
@@ -6641,7 +6638,7 @@
         <v>386</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>388</v>
@@ -6650,7 +6647,7 @@
         <v>387</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>500</v>
@@ -6887,7 +6884,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>236</v>
       </c>
@@ -7144,17 +7141,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7167,72 +7164,72 @@
   <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
@@ -7429,7 +7426,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>507</v>
       </c>
@@ -7569,7 +7566,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>507</v>
       </c>
@@ -7709,7 +7706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>507</v>
       </c>
@@ -7849,17 +7846,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7868,144 +7865,144 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH17"/>
+  <dimension ref="A1:EI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
@@ -8421,9 +8418,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>492</v>
@@ -8432,10 +8429,10 @@
         <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>236</v>
@@ -8476,23 +8473,23 @@
       <c r="U2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>409</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>390</v>
@@ -8594,7 +8591,7 @@
         <v>145</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>148</v>
@@ -8624,7 +8621,7 @@
         <v>141</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>144</v>
@@ -8642,13 +8639,13 @@
         <v>145</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>150</v>
@@ -8737,10 +8734,13 @@
       <c r="EG2" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>498</v>
@@ -8749,10 +8749,10 @@
         <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>236</v>
@@ -8793,23 +8793,23 @@
       <c r="U3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="X3" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>144</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>410</v>
@@ -8911,7 +8911,7 @@
         <v>145</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>148</v>
@@ -8941,7 +8941,7 @@
         <v>141</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>144</v>
@@ -8959,13 +8959,13 @@
         <v>145</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>150</v>
@@ -9054,10 +9054,13 @@
       <c r="EG3" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>492</v>
@@ -9066,10 +9069,10 @@
         <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>236</v>
@@ -9110,23 +9113,23 @@
       <c r="U4" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>406</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>179</v>
@@ -9228,7 +9231,7 @@
         <v>145</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>148</v>
@@ -9258,7 +9261,7 @@
         <v>141</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>144</v>
@@ -9276,13 +9279,13 @@
         <v>145</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>150</v>
@@ -9371,10 +9374,13 @@
       <c r="EG4" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="EI4" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>498</v>
@@ -9383,10 +9389,10 @@
         <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>236</v>
@@ -9427,23 +9433,23 @@
       <c r="U5" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y5" s="3" t="s">
+      <c r="X5" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>407</v>
@@ -9545,7 +9551,7 @@
         <v>145</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>148</v>
@@ -9575,7 +9581,7 @@
         <v>141</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>144</v>
@@ -9593,13 +9599,13 @@
         <v>145</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>150</v>
@@ -9688,21 +9694,23 @@
       <c r="EG5" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="EI5" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:EH1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
